--- a/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTongHop.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTongHop.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -62,6 +62,13 @@
   </si>
   <si>
     <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Thành tiền 
+(trước CK)</t>
+  </si>
+  <si>
+    <t>Chiết khấu</t>
   </si>
 </sst>
 </file>
@@ -560,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,17 +582,19 @@
     <col min="4" max="4" width="21.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="18" style="14" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="19.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="18" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -601,9 +610,11 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -617,11 +628,13 @@
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -641,28 +654,34 @@
         <v>7</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="8"/>
@@ -676,8 +695,10 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
@@ -691,8 +712,10 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="8"/>
@@ -706,8 +729,10 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="8"/>
@@ -721,8 +746,10 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="8"/>
@@ -736,8 +763,10 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="8"/>
@@ -751,8 +780,10 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
@@ -766,8 +797,10 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="8"/>
@@ -781,8 +814,10 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -796,8 +831,10 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
@@ -811,8 +848,10 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
@@ -826,8 +865,10 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="8"/>
@@ -841,8 +882,10 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
@@ -856,8 +899,10 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -871,8 +916,10 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -886,8 +933,10 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
@@ -901,8 +950,10 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
@@ -916,8 +967,10 @@
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
@@ -931,8 +984,10 @@
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="8"/>
@@ -946,8 +1001,10 @@
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -961,8 +1018,10 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -976,8 +1035,10 @@
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="8"/>
@@ -991,8 +1052,10 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="8"/>
@@ -1006,8 +1069,10 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="8"/>
@@ -1021,8 +1086,10 @@
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>0</v>
       </c>
@@ -1062,12 +1129,20 @@
         <f>SUM(M$5:M28)</f>
         <v>0</v>
       </c>
+      <c r="N29" s="17">
+        <f>SUM(N$5:N28)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <f>SUM(O$5:O28)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTongHop.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTongHop.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Chiết khấu</t>
+  </si>
+  <si>
+    <t>Giảm trừ Bảo hiểm</t>
   </si>
 </sst>
 </file>
@@ -567,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,15 +589,16 @@
     <col min="8" max="8" width="16.5703125" style="14" customWidth="1"/>
     <col min="9" max="9" width="18.140625" style="14" customWidth="1"/>
     <col min="10" max="10" width="18" style="14" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="14" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="30.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="14" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -612,9 +616,10 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -630,11 +635,12 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -666,22 +672,25 @@
         <v>9</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="8"/>
@@ -697,8 +706,9 @@
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
@@ -714,8 +724,9 @@
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="8"/>
@@ -731,8 +742,9 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="11"/>
       <c r="C8" s="8"/>
@@ -748,8 +760,9 @@
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="8"/>
@@ -765,8 +778,9 @@
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="8"/>
@@ -782,8 +796,9 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
@@ -799,8 +814,9 @@
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="8"/>
@@ -816,8 +832,9 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
@@ -833,8 +850,9 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="8"/>
@@ -850,8 +868,9 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="8"/>
@@ -867,8 +886,9 @@
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="11"/>
       <c r="C16" s="8"/>
@@ -884,8 +904,9 @@
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
@@ -901,8 +922,9 @@
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="11"/>
       <c r="C18" s="8"/>
@@ -918,8 +940,9 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
       <c r="C19" s="8"/>
@@ -935,8 +958,9 @@
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="11"/>
       <c r="C20" s="8"/>
@@ -952,8 +976,9 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
@@ -969,8 +994,9 @@
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
@@ -986,8 +1012,9 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="8"/>
@@ -1003,8 +1030,9 @@
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="11"/>
       <c r="C24" s="8"/>
@@ -1020,8 +1048,9 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="11"/>
       <c r="C25" s="8"/>
@@ -1037,8 +1066,9 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="8"/>
@@ -1054,8 +1084,9 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="8"/>
@@ -1071,8 +1102,9 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="11"/>
       <c r="C28" s="8"/>
@@ -1088,8 +1120,9 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>0</v>
       </c>
@@ -1137,12 +1170,27 @@
         <f>SUM(O$5:O28)</f>
         <v>0</v>
       </c>
+      <c r="P29" s="17">
+        <f>SUM(P$5:P28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
